--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AA4CB2-978C-4790-8367-B6482C1B95C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13332860-B977-45FF-A778-A6240F0C6337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4470" windowWidth="20730" windowHeight="11160" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Expedientes">Expedientes!$A$4:$G$5</definedName>
+    <definedName name="Expedientes">Expedientes!$A$4:$G$7</definedName>
+    <definedName name="Expedientes_Estudios">Expedientes!$A$5:$G$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,9 +29,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>{{item.Edad}}</t>
+  </si>
+  <si>
+    <t>Solicitud</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Compañía</t>
+  </si>
+  <si>
+    <t>{{item.Solicitud}}</t>
+  </si>
+  <si>
+    <t>{{item.Nombre}}</t>
+  </si>
+  <si>
+    <t>{{item.Registro}}</t>
+  </si>
+  <si>
+    <t>{{item.Sucursal}}</t>
+  </si>
+  <si>
+    <t>{{item.Sexo}}</t>
+  </si>
+  <si>
+    <t>{{item.Compañia}}</t>
+  </si>
+  <si>
+    <t>{{item.Clave}}</t>
+  </si>
+  <si>
+    <t>{{item.Entrega}}</t>
   </si>
   <si>
     <r>
@@ -68,74 +114,11 @@
         <scheme val="minor"/>
       </rPr>
       <t>Listado de {{Titulo}}
-DEL {{Fecha}} AL {{Fecha}}</t>
+DEL {{FechaInicio}} AL {{FechaFinal}}</t>
     </r>
   </si>
   <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>{{item.Edad}}</t>
-  </si>
-  <si>
-    <t>Solicitud</t>
-  </si>
-  <si>
-    <t>Registro</t>
-  </si>
-  <si>
-    <t>Sucursal</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Compañía</t>
-  </si>
-  <si>
-    <t>{{item.Solicitud}}</t>
-  </si>
-  <si>
-    <t>{{item.Nombre}}</t>
-  </si>
-  <si>
-    <t>{{item.Registro}}</t>
-  </si>
-  <si>
-    <t>{{item.Sucursal}}</t>
-  </si>
-  <si>
-    <t>{{item.Sexo}}</t>
-  </si>
-  <si>
-    <t>{{item.Compañia}}</t>
-  </si>
-  <si>
-    <t>{{item.Estudio.Clave}}</t>
-  </si>
-  <si>
-    <t>{{item.Estudio.Nombre}}</t>
-  </si>
-  <si>
-    <t>{{item.Estudio.Registro}}</t>
-  </si>
-  <si>
-    <t>{{item.Estudio.Entrega}}</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Clave Estudio</t>
-  </si>
-  <si>
-    <t>Nombre Estudio</t>
-  </si>
-  <si>
-    <t>Registro Estudio</t>
-  </si>
-  <si>
-    <t>Entrega Estudio</t>
+    <t>{{item.Status == 2 ? "Toma de Muestra" : "Solicitado"}}</t>
   </si>
 </sst>
 </file>
@@ -190,12 +173,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,12 +211,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,105 +613,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13332860-B977-45FF-A778-A6240F0C6337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D298F-8413-4288-B029-0251D3D82183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     </r>
   </si>
   <si>
-    <t>{{item.Status == 2 ? "Toma de Muestra" : "Solicitado"}}</t>
+    <t>{{item.NombreEstatus}}</t>
   </si>
 </sst>
 </file>
@@ -229,8 +229,124 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8497B0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8497B0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -597,7 +713,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +824,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"Clave"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Nombre Estudio"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Fecha de Registro"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Fecha de Entrega"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Estatus"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D298F-8413-4288-B029-0251D3D82183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589834A-57CD-4D86-A2D0-A643FB6174A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Solicitudes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Expedientes">Expedientes!$A$4:$G$7</definedName>
-    <definedName name="Expedientes_Estudios">Expedientes!$A$5:$G$6</definedName>
+    <definedName name="Expedientes">Solicitudes!$A$4:$G$7</definedName>
+    <definedName name="Expedientes_Estudios">Solicitudes!$A$5:$G$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -229,62 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8497B0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -713,7 +658,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,27 +770,27 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Clave"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Nombre Estudio"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Fecha de Registro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fecha de Entrega"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Estatus"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/InformeExpedientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589834A-57CD-4D86-A2D0-A643FB6174A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3BAACB-4D96-4C05-959B-53E16064F2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Solicitudes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Expedientes">Solicitudes!$A$4:$G$7</definedName>
-    <definedName name="Expedientes_Estudios">Solicitudes!$A$5:$G$6</definedName>
+    <definedName name="Solicitudes">Solicitudes!$A$4:$G$7</definedName>
+    <definedName name="Solicitudes_Estudios">Solicitudes!$A$5:$G$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
